--- a/data/trans_orig/LAWTONB_2R3-Edad-trans_orig.xlsx
+++ b/data/trans_orig/LAWTONB_2R3-Edad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>18734</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>11234</v>
+        <v>11351</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>28519</v>
+        <v>29762</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.06403012827490584</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03839436465766573</v>
+        <v>0.03879582970125493</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.09747360011264619</v>
+        <v>0.1017230854878714</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>36</v>
@@ -765,19 +765,19 @@
         <v>34018</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>24779</v>
+        <v>24514</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>45712</v>
+        <v>45672</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.09919588757046738</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.07225632763069964</v>
+        <v>0.07148198490685387</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.133297206604487</v>
+        <v>0.1331788706273893</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>55</v>
@@ -786,19 +786,19 @@
         <v>52752</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>39767</v>
+        <v>39099</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>65862</v>
+        <v>66253</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.08300607144902071</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.06257347937671123</v>
+        <v>0.06152250112242864</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1036345407194444</v>
+        <v>0.1042498526607823</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>273849</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>264064</v>
+        <v>262821</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>281349</v>
+        <v>281232</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9359698717250942</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9025263998873552</v>
+        <v>0.8982769145121285</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9616056353423343</v>
+        <v>0.9612041702987451</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>335</v>
@@ -836,19 +836,19 @@
         <v>308916</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>297222</v>
+        <v>297262</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>318155</v>
+        <v>318420</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9008041124295326</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8667027933955126</v>
+        <v>0.866821129372611</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9277436723693</v>
+        <v>0.9285180150931464</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>619</v>
@@ -857,19 +857,19 @@
         <v>582765</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>569655</v>
+        <v>569264</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>595750</v>
+        <v>596418</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9169939285509793</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8963654592805556</v>
+        <v>0.8957501473392181</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9374265206232887</v>
+        <v>0.9384774988775714</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>45919</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>35640</v>
+        <v>35404</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>58855</v>
+        <v>58257</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2187842182060695</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1698104934508107</v>
+        <v>0.1686850043244429</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2804191477536479</v>
+        <v>0.2775678994117737</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>80</v>
@@ -982,19 +982,19 @@
         <v>91827</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>76224</v>
+        <v>75115</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>109834</v>
+        <v>108695</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.275006827356631</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2282779884579429</v>
+        <v>0.2249570633337391</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3289344335921928</v>
+        <v>0.3255234308306241</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>130</v>
@@ -1003,19 +1003,19 @@
         <v>137746</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>117320</v>
+        <v>118569</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>158966</v>
+        <v>160326</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2533070009944401</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.215744079211516</v>
+        <v>0.218042191020843</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2923299236626651</v>
+        <v>0.2948310021111443</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>163964</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>151028</v>
+        <v>151626</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>174243</v>
+        <v>174479</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7812157817939305</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7195808522463517</v>
+        <v>0.7224321005882263</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8301895065491892</v>
+        <v>0.8313149956755571</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>210</v>
@@ -1053,19 +1053,19 @@
         <v>242081</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>224074</v>
+        <v>225213</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>257684</v>
+        <v>258793</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.724993172643369</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6710655664078073</v>
+        <v>0.6744765691693758</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7717220115420572</v>
+        <v>0.7750429366662611</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>380</v>
@@ -1074,19 +1074,19 @@
         <v>406045</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>384825</v>
+        <v>383465</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>426471</v>
+        <v>425222</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.74669299900556</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7076700763373349</v>
+        <v>0.7051689978888557</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7842559207884839</v>
+        <v>0.7819578089791569</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>64653</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>51422</v>
+        <v>52804</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>80947</v>
+        <v>81300</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1286718283285648</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.102339657825441</v>
+        <v>0.1050894556205817</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.161099927688192</v>
+        <v>0.1618023642772639</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>116</v>
@@ -1199,19 +1199,19 @@
         <v>125845</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>106092</v>
+        <v>105823</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>147072</v>
+        <v>147711</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1859291040717413</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1567462371868074</v>
+        <v>0.1563484564930017</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.217291941809795</v>
+        <v>0.2182355184579468</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>185</v>
@@ -1220,19 +1220,19 @@
         <v>190498</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>164539</v>
+        <v>164992</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>218670</v>
+        <v>215710</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1615335818302416</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1395212927983874</v>
+        <v>0.139905424332552</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1854226919725903</v>
+        <v>0.1829125183753606</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>437813</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>421519</v>
+        <v>421166</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>451044</v>
+        <v>449662</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8713281716714352</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8389000723118077</v>
+        <v>0.8381976357227359</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.897660342174559</v>
+        <v>0.8949105443794181</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>545</v>
@@ -1270,19 +1270,19 @@
         <v>550997</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>529770</v>
+        <v>529131</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>570750</v>
+        <v>571019</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8140708959282587</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7827080581902053</v>
+        <v>0.7817644815420532</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8432537628131926</v>
+        <v>0.8436515435069986</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>999</v>
@@ -1291,19 +1291,19 @@
         <v>988810</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>960638</v>
+        <v>963598</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1014769</v>
+        <v>1014316</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8384664181697584</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8145773080274097</v>
+        <v>0.8170874816246394</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8604787072016128</v>
+        <v>0.860094575667448</v>
       </c>
     </row>
     <row r="12">
@@ -1633,19 +1633,19 @@
         <v>29721</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>20153</v>
+        <v>20087</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>42246</v>
+        <v>43409</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.09593998457661888</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.06505354971304646</v>
+        <v>0.06484227840743145</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1363716307264345</v>
+        <v>0.1401272008222502</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>38</v>
@@ -1654,19 +1654,19 @@
         <v>39343</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>28531</v>
+        <v>28464</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>54222</v>
+        <v>55003</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1111410759177378</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.08059786852589088</v>
+        <v>0.08040771377434029</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1531701474114362</v>
+        <v>0.1553776367527095</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>65</v>
@@ -1675,19 +1675,19 @@
         <v>69064</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>52784</v>
+        <v>54874</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>85451</v>
+        <v>90031</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.104046748623396</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.07951936346882109</v>
+        <v>0.08266940077849497</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1287337971985636</v>
+        <v>0.1356334949713134</v>
       </c>
     </row>
     <row r="5">
@@ -1704,19 +1704,19 @@
         <v>280065</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>267540</v>
+        <v>266377</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>289633</v>
+        <v>289699</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9040600154233811</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8636283692735655</v>
+        <v>0.8598727991777498</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9349464502869536</v>
+        <v>0.9351577215925685</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>306</v>
@@ -1725,19 +1725,19 @@
         <v>314653</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>299774</v>
+        <v>298993</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>325465</v>
+        <v>325532</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8888589240822622</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8468298525885641</v>
+        <v>0.8446223632472903</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9194021314741093</v>
+        <v>0.9195922862256596</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>561</v>
@@ -1746,19 +1746,19 @@
         <v>594718</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>578331</v>
+        <v>573751</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>610998</v>
+        <v>608908</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.895953251376604</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8712662028014365</v>
+        <v>0.8643665050286867</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.920480636531179</v>
+        <v>0.9173305992215052</v>
       </c>
     </row>
     <row r="6">
@@ -1850,19 +1850,19 @@
         <v>86680</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>71419</v>
+        <v>70986</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>103969</v>
+        <v>104754</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3469250708161481</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2858453317967252</v>
+        <v>0.2841113935091188</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4161235136623143</v>
+        <v>0.4192647387809429</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>140</v>
@@ -1871,19 +1871,19 @@
         <v>155110</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>135297</v>
+        <v>136110</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>175384</v>
+        <v>175373</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3987622494295006</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3478257130077944</v>
+        <v>0.3499155126050761</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4508821312061741</v>
+        <v>0.4508537042845886</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>215</v>
@@ -1892,19 +1892,19 @@
         <v>241790</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>215464</v>
+        <v>215952</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>267465</v>
+        <v>268072</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3784883638326853</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3372795538165318</v>
+        <v>0.3380425340685924</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4186786832568639</v>
+        <v>0.4196291237910892</v>
       </c>
     </row>
     <row r="8">
@@ -1921,19 +1921,19 @@
         <v>163171</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>145882</v>
+        <v>145097</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>178432</v>
+        <v>178865</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6530749291838519</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5838764863376857</v>
+        <v>0.5807352612190571</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7141546682032749</v>
+        <v>0.7158886064908812</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>210</v>
@@ -1942,19 +1942,19 @@
         <v>233869</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>213595</v>
+        <v>213606</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>253682</v>
+        <v>252869</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6012377505704994</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5491178687938257</v>
+        <v>0.5491462957154115</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6521742869922055</v>
+        <v>0.6500844873949241</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>357</v>
@@ -1963,19 +1963,19 @@
         <v>397040</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>371365</v>
+        <v>370758</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>423366</v>
+        <v>422878</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6215116361673148</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.5813213167431361</v>
+        <v>0.5803708762089107</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.662720446183468</v>
+        <v>0.6619574659314077</v>
       </c>
     </row>
     <row r="9">
@@ -2067,19 +2067,19 @@
         <v>116400</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>96337</v>
+        <v>95353</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>138932</v>
+        <v>138893</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2079926793826373</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1721414536845844</v>
+        <v>0.1703829782223399</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2482533458573305</v>
+        <v>0.2481844182131615</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>178</v>
@@ -2088,19 +2088,19 @@
         <v>194454</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>170117</v>
+        <v>171588</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>220847</v>
+        <v>219962</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2617229879361923</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2289677460627383</v>
+        <v>0.2309471252751682</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2972471592053033</v>
+        <v>0.2960561611486903</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>280</v>
@@ -2109,19 +2109,19 @@
         <v>310854</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>280961</v>
+        <v>281438</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>346981</v>
+        <v>342188</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2386390075650809</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2156906679844358</v>
+        <v>0.2160563263473659</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2663729468367856</v>
+        <v>0.2626933883316452</v>
       </c>
     </row>
     <row r="11">
@@ -2138,19 +2138,19 @@
         <v>443237</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>420705</v>
+        <v>420744</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>463300</v>
+        <v>464284</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7920073206173627</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7517466541426695</v>
+        <v>0.7518155817868384</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8278585463154157</v>
+        <v>0.8296170217776601</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>516</v>
@@ -2159,19 +2159,19 @@
         <v>548521</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>522128</v>
+        <v>523013</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>572858</v>
+        <v>571387</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7382770120638077</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7027528407946967</v>
+        <v>0.7039438388513096</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7710322539372617</v>
+        <v>0.7690528747248317</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>918</v>
@@ -2180,19 +2180,19 @@
         <v>991758</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>955631</v>
+        <v>960424</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1021651</v>
+        <v>1021174</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7613609924349192</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7336270531632143</v>
+        <v>0.7373066116683548</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7843093320155642</v>
+        <v>0.7839436736526341</v>
       </c>
     </row>
     <row r="12">
@@ -2522,19 +2522,19 @@
         <v>21364</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>14218</v>
+        <v>13573</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>32012</v>
+        <v>32550</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.06390054710031608</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.0425268989865553</v>
+        <v>0.04059844352643613</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.09574937392589102</v>
+        <v>0.09735927198978644</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>35</v>
@@ -2543,19 +2543,19 @@
         <v>36156</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>26212</v>
+        <v>25297</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>50979</v>
+        <v>47381</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.09571070027817091</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.06938704621516138</v>
+        <v>0.06696674231427985</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1349487833804789</v>
+        <v>0.1254263741276981</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>56</v>
@@ -2564,19 +2564,19 @@
         <v>57520</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>44506</v>
+        <v>44281</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>73706</v>
+        <v>74432</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.08077570809038337</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.06250026583112275</v>
+        <v>0.06218386828345412</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1035060746782974</v>
+        <v>0.1045252761783736</v>
       </c>
     </row>
     <row r="5">
@@ -2593,19 +2593,19 @@
         <v>312966</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>302318</v>
+        <v>301780</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>320112</v>
+        <v>320757</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9360994528996839</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9042506260741091</v>
+        <v>0.9026407280102136</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9574731010134447</v>
+        <v>0.959401556473564</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>319</v>
@@ -2614,19 +2614,19 @@
         <v>341606</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>326783</v>
+        <v>330381</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>351550</v>
+        <v>352465</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.904289299721829</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8650512166195209</v>
+        <v>0.8745736258723019</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9306129537848385</v>
+        <v>0.9330332576857201</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>623</v>
@@ -2635,19 +2635,19 @@
         <v>654572</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>638386</v>
+        <v>637660</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>667586</v>
+        <v>667811</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9192242919096166</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8964939253217021</v>
+        <v>0.8954747238216264</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9374997341688772</v>
+        <v>0.9378161317165459</v>
       </c>
     </row>
     <row r="6">
@@ -2739,19 +2739,19 @@
         <v>67722</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>54947</v>
+        <v>54527</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>80962</v>
+        <v>80550</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2635118972326926</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2138025116471202</v>
+        <v>0.2121687601662502</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.315029908766619</v>
+        <v>0.3134251559756381</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>110</v>
@@ -2760,19 +2760,19 @@
         <v>147191</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>127656</v>
+        <v>125106</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>169715</v>
+        <v>169034</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3678217769061919</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3190055220224527</v>
+        <v>0.3126341137636436</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4241090656446179</v>
+        <v>0.4224065411254878</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>188</v>
@@ -2781,19 +2781,19 @@
         <v>214913</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>190919</v>
+        <v>190724</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>243375</v>
+        <v>243362</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3270293595340445</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2905187118433313</v>
+        <v>0.2902211549146372</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3703401933405864</v>
+        <v>0.3703206248433388</v>
       </c>
     </row>
     <row r="8">
@@ -2810,19 +2810,19 @@
         <v>189276</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>176036</v>
+        <v>176448</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>202051</v>
+        <v>202471</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7364881027673074</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6849700912333809</v>
+        <v>0.6865748440243619</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7861974883528797</v>
+        <v>0.7878312398337498</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>191</v>
@@ -2831,19 +2831,19 @@
         <v>252978</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>230454</v>
+        <v>231135</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>272513</v>
+        <v>275063</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.632178223093808</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5758909343553821</v>
+        <v>0.5775934588745123</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6809944779775473</v>
+        <v>0.6873658862363564</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>415</v>
@@ -2852,19 +2852,19 @@
         <v>442254</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>413792</v>
+        <v>413805</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>466248</v>
+        <v>466443</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6729706404659554</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6296598066594135</v>
+        <v>0.6296793751566614</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7094812881566688</v>
+        <v>0.7097788450853628</v>
       </c>
     </row>
     <row r="9">
@@ -2956,19 +2956,19 @@
         <v>89086</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>72676</v>
+        <v>74075</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>105269</v>
+        <v>106225</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1506539530871139</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1229027977679228</v>
+        <v>0.1252681364379513</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1780213972559931</v>
+        <v>0.1796375517790794</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>145</v>
@@ -2977,19 +2977,19 @@
         <v>183347</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>157659</v>
+        <v>157849</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>208445</v>
+        <v>210046</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2356850902301122</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2026638777498206</v>
+        <v>0.2029084896002077</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2679480684836626</v>
+        <v>0.2700061819504744</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>244</v>
@@ -2998,19 +2998,19 @@
         <v>272433</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>240986</v>
+        <v>241978</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>303218</v>
+        <v>303179</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1989635553064476</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1759973014521063</v>
+        <v>0.1767220275867888</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2214469323528347</v>
+        <v>0.2214184270641579</v>
       </c>
     </row>
     <row r="11">
@@ -3027,19 +3027,19 @@
         <v>502242</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>486059</v>
+        <v>485103</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>518652</v>
+        <v>517253</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8493460469128862</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8219786027440068</v>
+        <v>0.8203624482209205</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8770972022320772</v>
+        <v>0.8747318635620488</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>510</v>
@@ -3048,19 +3048,19 @@
         <v>594584</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>569486</v>
+        <v>567885</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>620272</v>
+        <v>620082</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7643149097698878</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7320519315163372</v>
+        <v>0.7299938180495255</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7973361222501791</v>
+        <v>0.7970915103997922</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1038</v>
@@ -3069,19 +3069,19 @@
         <v>1096826</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1066041</v>
+        <v>1066080</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1128273</v>
+        <v>1127281</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8010364446935524</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7785530676471646</v>
+        <v>0.7785815729358422</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8240026985478933</v>
+        <v>0.8232779724132113</v>
       </c>
     </row>
     <row r="12">
@@ -3411,19 +3411,19 @@
         <v>28122</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>20380</v>
+        <v>21039</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>36341</v>
+        <v>37076</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.06975694239939043</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.05055346791884054</v>
+        <v>0.05218663783442513</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.0901458842181191</v>
+        <v>0.09196727208727598</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>80</v>
@@ -3432,19 +3432,19 @@
         <v>43930</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>35456</v>
+        <v>35389</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>53769</v>
+        <v>52607</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1004534486751585</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.08107604753727529</v>
+        <v>0.08092291958560052</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1229500807286339</v>
+        <v>0.1202940051024614</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>125</v>
@@ -3453,19 +3453,19 @@
         <v>72052</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>60814</v>
+        <v>60141</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>84841</v>
+        <v>86077</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.0857293829707603</v>
+        <v>0.08572938297076034</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.07235837358424031</v>
+        <v>0.07155750382485575</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1009461344688051</v>
+        <v>0.1024170153768413</v>
       </c>
     </row>
     <row r="5">
@@ -3482,19 +3482,19 @@
         <v>375018</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>366799</v>
+        <v>366064</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>382760</v>
+        <v>382101</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.9302430576006098</v>
+        <v>0.9302430576006097</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9098541157818817</v>
+        <v>0.9080327279127239</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9494465320811596</v>
+        <v>0.9478133621655748</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>743</v>
@@ -3503,19 +3503,19 @@
         <v>393390</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>383551</v>
+        <v>384713</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>401864</v>
+        <v>401931</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.8995465513248416</v>
+        <v>0.8995465513248415</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8770499192713661</v>
+        <v>0.8797059948975386</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9189239524627247</v>
+        <v>0.9190770804143996</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1262</v>
@@ -3524,19 +3524,19 @@
         <v>768408</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>755619</v>
+        <v>754383</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>779646</v>
+        <v>780319</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9142706170292395</v>
+        <v>0.9142706170292398</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8990538655311954</v>
+        <v>0.8975829846231588</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9276416264157598</v>
+        <v>0.9284424961751441</v>
       </c>
     </row>
     <row r="6">
@@ -3628,19 +3628,19 @@
         <v>85417</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>73076</v>
+        <v>72344</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>98035</v>
+        <v>97710</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.278169691200768</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2379810524158178</v>
+        <v>0.2355955788981414</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3192638639336829</v>
+        <v>0.3182031192697723</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>401</v>
@@ -3649,19 +3649,19 @@
         <v>211452</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>195852</v>
+        <v>196486</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>227160</v>
+        <v>227245</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.4587817335657826</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.4249366548856713</v>
+        <v>0.4263103580881263</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4928648777056195</v>
+        <v>0.4930493860768377</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>535</v>
@@ -3670,19 +3670,19 @@
         <v>296868</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>274860</v>
+        <v>277984</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>317048</v>
+        <v>320752</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3865649256770676</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3579068680481735</v>
+        <v>0.3619748931403619</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4128425331228126</v>
+        <v>0.4176652514353031</v>
       </c>
     </row>
     <row r="8">
@@ -3699,19 +3699,19 @@
         <v>221650</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>209032</v>
+        <v>209357</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>233991</v>
+        <v>234723</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.721830308799232</v>
+        <v>0.7218303087992318</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6807361360663171</v>
+        <v>0.6817968807302279</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7620189475841821</v>
+        <v>0.7644044211018591</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>474</v>
@@ -3720,19 +3720,19 @@
         <v>249446</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>233738</v>
+        <v>233653</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>265046</v>
+        <v>264412</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.5412182664342173</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5071351222943805</v>
+        <v>0.5069506139231625</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.5750633451143287</v>
+        <v>0.5736896419118737</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>794</v>
@@ -3741,19 +3741,19 @@
         <v>471096</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>450916</v>
+        <v>447212</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>493104</v>
+        <v>489980</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6134350743229325</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.5871574668771875</v>
+        <v>0.5823347485646967</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6420931319518265</v>
+        <v>0.6380251068596382</v>
       </c>
     </row>
     <row r="9">
@@ -3845,19 +3845,19 @@
         <v>113539</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>98484</v>
+        <v>98066</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>129229</v>
+        <v>130288</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.159866785369437</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1386692186258262</v>
+        <v>0.1380809580121421</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1819598922822145</v>
+        <v>0.1834510773133514</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>481</v>
@@ -3866,19 +3866,19 @@
         <v>255382</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>234462</v>
+        <v>236168</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>274879</v>
+        <v>277041</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.2843205443861945</v>
+        <v>0.2843205443861946</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2610304638982825</v>
+        <v>0.2629294017294213</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3060275747994671</v>
+        <v>0.3084336816427625</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>660</v>
@@ -3887,19 +3887,19 @@
         <v>368920</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>342734</v>
+        <v>343793</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>394992</v>
+        <v>396219</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.2293674586049771</v>
+        <v>0.229367458604977</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.213086663534298</v>
+        <v>0.2137453231795672</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2455771734084569</v>
+        <v>0.2463398474749019</v>
       </c>
     </row>
     <row r="11">
@@ -3916,19 +3916,19 @@
         <v>596668</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>580978</v>
+        <v>579919</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>611723</v>
+        <v>612141</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8401332146305629</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8180401077177856</v>
+        <v>0.8165489226866484</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.861330781374174</v>
+        <v>0.8619190419878578</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>1217</v>
@@ -3937,19 +3937,19 @@
         <v>642836</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>623339</v>
+        <v>621177</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>663756</v>
+        <v>662050</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7156794556138053</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.693972425200533</v>
+        <v>0.6915663183572376</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7389695361017175</v>
+        <v>0.7370705982705787</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>2056</v>
@@ -3958,19 +3958,19 @@
         <v>1239504</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1213432</v>
+        <v>1212205</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1265690</v>
+        <v>1264631</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.770632541395023</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7544228265915431</v>
+        <v>0.7536601525250981</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7869133364657021</v>
+        <v>0.7862546768204329</v>
       </c>
     </row>
     <row r="12">
